--- a/biology/Médecine/Canal_ulnaire/Canal_ulnaire.xlsx
+++ b/biology/Médecine/Canal_ulnaire/Canal_ulnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal ulnaire (ou canal de Guyon ou canal cubital) est un canal ostéo-fibreux longitudinal au niveau du poignet.
-Le tunnel ulnaire porte également le nom éponyme du chirurgien français Jean Casimir Félix Guyon, qui a initialement décrit le canal en 1861[1].
+Le tunnel ulnaire porte également le nom éponyme du chirurgien français Jean Casimir Félix Guyon, qui a initialement décrit le canal en 1861.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal ulnaire est situé médialement au canal carpien.
 En arrière, il est délimité par le rétinaculum des fléchisseurs et en avant par une extension du tendon du muscle fléchisseur ulnaire du carpe.
@@ -546,7 +560,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal ulnaire fournit le passage de l'avant bras à la main au nerf et à l'artère ulnaire.
 </t>
@@ -577,9 +593,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une compression du nerf ulnaire au niveau du canal entraîne le syndrome du canal de Guyon[2]. Cette compression peut être due[3] à un kyste synovial ou à une pratique sportive prolongée, comme le cyclisme par compression sur le guidon.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une compression du nerf ulnaire au niveau du canal entraîne le syndrome du canal de Guyon. Cette compression peut être due à un kyste synovial ou à une pratique sportive prolongée, comme le cyclisme par compression sur le guidon.
 </t>
         </is>
       </c>
